--- a/Lista de Alumnos.xlsx
+++ b/Lista de Alumnos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SCRProteus\ISPC\Alumnos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC5557-EC19-4FAE-97A0-F6E71752FD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Electronica Microcontrolada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -36,12 +30,24 @@
   <si>
     <t>nombre github</t>
   </si>
+  <si>
+    <t>Emma Vilma Gutiérrez</t>
+  </si>
+  <si>
+    <t>emygut@gmail.com</t>
+  </si>
+  <si>
+    <t>emygut</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -76,6 +82,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +181,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,17 +401,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
@@ -404,7 +420,7 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,16 +437,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -439,7 +463,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="25.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -448,7 +472,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -457,7 +481,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -466,7 +490,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -475,7 +499,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="25.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -484,7 +508,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="25.5" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -493,7 +517,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -502,7 +526,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="25.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -511,7 +535,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -520,7 +544,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -529,7 +553,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="25.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -538,7 +562,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="25.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -547,7 +571,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="25.5" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -556,7 +580,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="25.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -565,7 +589,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="25.5" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -574,7 +598,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -583,7 +607,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="25.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -592,7 +616,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="25.5" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -601,7 +625,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="25.5" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -610,7 +634,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="25.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -619,7 +643,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="25.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -628,7 +652,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="25.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -637,7 +661,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="25.5" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -646,7 +670,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="25.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -655,7 +679,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="25.5" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -664,7 +688,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="25.5" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -673,7 +697,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="25.5" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -682,7 +706,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="25.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -691,7 +715,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="25.5" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -700,7 +724,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="25.5" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -709,7 +733,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="25.5" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -718,7 +742,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="25.5" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -727,7 +751,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="25.5" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -736,7 +760,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="25.5" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -745,7 +769,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="25.5" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -754,7 +778,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="25.5" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -763,7 +787,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="25.5" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -772,7 +796,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="25.5" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -781,7 +805,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="25.5" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -790,7 +814,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="25.5" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -799,7 +823,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="25.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -808,7 +832,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="25.5" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -817,7 +841,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="25.5" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -826,7 +850,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="25.5" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -835,7 +859,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="25.5" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -844,7 +868,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="25.5" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -853,7 +877,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="25.5" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -862,7 +886,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="25.5" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -871,7 +895,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="25.5" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -880,7 +904,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="25.5" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -889,7 +913,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="25.5" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -898,7 +922,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="25.5" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -907,7 +931,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="25.5" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -916,7 +940,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="25.5" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -925,7 +949,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="25.5" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -934,7 +958,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="25.5" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -943,7 +967,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="25.5" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -953,7 +977,10 @@
       <c r="E60" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>